--- a/Assets/06.Table/ClearTicket.xlsx
+++ b/Assets/06.Table/ClearTicket.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0A9691-F7B6-40BB-80E8-3CCCE26838ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A67476-883E-4279-A24E-616B76B380A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ClearTicket" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ClearTicket!$A$1:$F$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ClearTicket!$A$1:$F$9</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,14 @@
   </si>
   <si>
     <t>여우불씨 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면세계 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀문석 소탕권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -493,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9033</v>
+        <v>9044</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -513,13 +521,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9028</v>
+        <v>9038</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -533,13 +541,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -553,13 +561,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -573,13 +581,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9023</v>
+        <v>9027</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -593,29 +601,69 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9009</v>
+        <v>9017</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
+      <c r="B8">
+        <v>9023</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9009</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F7" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
-      <sortCondition descending="1" ref="A1:A7"/>
+  <autoFilter ref="A1:F9" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F9">
+      <sortCondition descending="1" ref="A1:A9"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F7">
+  <conditionalFormatting sqref="F1:F9">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($F1=FALSE,$F1&lt;&gt;"")</formula>
     </cfRule>

--- a/Assets/06.Table/ClearTicket.xlsx
+++ b/Assets/06.Table/ClearTicket.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A67476-883E-4279-A24E-616B76B380A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBB7DB8-5799-49CD-80D7-8D2DB9F3910D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ClearTicket" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ClearTicket!$A$1:$F$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ClearTicket!$A$1:$F$10</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>귀문석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 영약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,13 +505,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9044</v>
+        <v>9050</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -521,13 +525,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9038</v>
+        <v>9044</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -541,13 +545,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9033</v>
+        <v>9038</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -561,13 +565,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9028</v>
+        <v>9033</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -581,13 +585,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9027</v>
+        <v>9028</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -601,13 +605,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9017</v>
+        <v>9027</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -621,13 +625,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -641,29 +645,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9009</v>
+        <v>9023</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9009</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="b">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F9" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F9">
-      <sortCondition descending="1" ref="A1:A9"/>
+  <autoFilter ref="A1:F10" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
+      <sortCondition descending="1" ref="A1:A10"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F9">
+  <conditionalFormatting sqref="F1:F10">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($F1=FALSE,$F1&lt;&gt;"")</formula>
     </cfRule>
